--- a/Documents/Burn_Digital_Game_-_Card_List (2).xlsx
+++ b/Documents/Burn_Digital_Game_-_Card_List (2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Possum!\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wits\Game Design\Unity Projects\GitHub\DungeonDeckBuilder\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B21786-BA2F-4610-AC00-F455A388FFD4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2344EA-7054-4CC1-B78B-D78727BE1CFB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" xr2:uid="{D548C7A5-E558-4AAD-9C57-0E65F64AFF18}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11376" windowHeight="5580" xr2:uid="{D548C7A5-E558-4AAD-9C57-0E65F64AFF18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -884,35 +884,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6480ED20-FAD2-4A05-B9C2-4B59253F9576}">
   <dimension ref="A1:T185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="93.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="59.7109375" customWidth="1"/>
+    <col min="1" max="1" width="74.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="93.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="59.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>42</v>
       </c>
@@ -920,7 +920,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>43</v>
       </c>
@@ -952,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>44</v>
       </c>
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I7" s="17"/>
       <c r="O7" s="12">
         <v>27</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>52</v>
@@ -1111,7 +1111,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>86</v>
       </c>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>40</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>82</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>39</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="10" t="s">
         <v>17</v>
@@ -1418,12 +1418,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O15" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O21" s="13">
         <v>15</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>26</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O27" s="12">
         <v>22</v>
       </c>
@@ -1764,12 +1764,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29" s="26" t="s">
         <v>83</v>
       </c>
@@ -1811,10 +1811,10 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="1:20" s="17" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" s="17" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33" s="22" t="s">
         <v>85</v>
@@ -1873,7 +1873,7 @@
       <c r="P33"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:20" s="17" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="17" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34" t="s">
         <v>47</v>
@@ -1915,7 +1915,7 @@
       <c r="S34"/>
       <c r="T34"/>
     </row>
-    <row r="35" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35" t="s">
         <v>76</v>
@@ -1956,7 +1956,7 @@
       <c r="R35"/>
       <c r="S35"/>
     </row>
-    <row r="36" spans="1:20" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
         <v>95</v>
       </c>
@@ -1977,54 +1977,54 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I37" s="18"/>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I38" s="18"/>
       <c r="J38" s="14"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
     </row>
-    <row r="40" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="15"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
       <c r="N65" s="17"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
     </row>
-    <row r="67" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
     </row>
-    <row r="68" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O68" s="12"/>
       <c r="P68" s="16"/>
     </row>
-    <row r="69" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B69" s="15"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O70" s="11"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
     </row>
-    <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -2035,16 +2035,16 @@
       <c r="H75" s="17"/>
       <c r="I75" s="18"/>
     </row>
-    <row r="76" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O76" s="12"/>
       <c r="P76" s="16"/>
     </row>
-    <row r="77" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
     </row>
-    <row r="79" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -2055,10 +2055,10 @@
       <c r="H82"/>
       <c r="I82" s="14"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I83" s="18"/>
     </row>
-    <row r="84" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -2069,7 +2069,7 @@
       <c r="H84"/>
       <c r="I84" s="14"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -2080,62 +2080,62 @@
       <c r="H85" s="17"/>
       <c r="I85" s="18"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B89" s="15"/>
     </row>
-    <row r="92" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="93" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O93" s="12"/>
       <c r="P93" s="16"/>
     </row>
-    <row r="94" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B94" s="15"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" s="18"/>
     </row>
-    <row r="98" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O99" s="12"/>
       <c r="P99" s="16"/>
     </row>
-    <row r="100" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C100" s="15"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B107" s="15"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I108" s="18"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
     </row>
-    <row r="113" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
     </row>
-    <row r="114" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O114" s="12"/>
       <c r="P114" s="16"/>
     </row>
-    <row r="115" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
     </row>
-    <row r="153" spans="15:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="15:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="15:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="15:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O154" s="12">
         <v>30</v>
       </c>
       <c r="P154" s="16"/>
     </row>
-    <row r="155" spans="15:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="15:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>60</v>
       </c>
